--- a/test_data_mels/hillenbrand_vowels.xlsx
+++ b/test_data_mels/hillenbrand_vowels.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/GitHub/bi_phon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bcl/Documents/GitHub/bi_phon/test_data_mels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C659EE-7B12-7D40-9212-F7BBFCCCB07E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C29B37-2C03-A54F-B024-CE26E14E8179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54300" yWindow="2960" windowWidth="28040" windowHeight="17440" xr2:uid="{47D8733B-3716-5946-8EAA-8A0B3D21D421}"/>
+    <workbookView xWindow="12020" yWindow="4720" windowWidth="28040" windowHeight="17440" xr2:uid="{47D8733B-3716-5946-8EAA-8A0B3D21D421}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>e</t>
   </si>
@@ -73,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,19 +425,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7260BA2B-009C-014B-9D1E-36C112AE24C1}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>437</v>
+      </c>
+      <c r="C2">
+        <v>2761</v>
+      </c>
+      <c r="D2">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>483</v>
+      </c>
+      <c r="C3">
+        <v>2365</v>
+      </c>
+      <c r="D3">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>536</v>
+      </c>
+      <c r="C4">
+        <v>2530</v>
+      </c>
+      <c r="D4">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>731</v>
+      </c>
+      <c r="C5">
+        <v>2058</v>
+      </c>
+      <c r="D5">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>669</v>
+      </c>
+      <c r="C6">
+        <v>2349</v>
+      </c>
+      <c r="D6">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>936</v>
+      </c>
+      <c r="C7">
+        <v>1551</v>
+      </c>
+      <c r="D7">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>781</v>
+      </c>
+      <c r="C8">
+        <v>1136</v>
+      </c>
+      <c r="D8">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>555</v>
+      </c>
+      <c r="C9">
+        <v>1035</v>
+      </c>
+      <c r="D9">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>519</v>
+      </c>
+      <c r="C10">
+        <v>1225</v>
+      </c>
+      <c r="D10">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>459</v>
+      </c>
+      <c r="C11">
+        <v>1105</v>
+      </c>
+      <c r="D11">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>753</v>
+      </c>
+      <c r="C12">
+        <v>1426</v>
+      </c>
+      <c r="D12">
+        <v>2933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF40C79F-B6B8-0D45-B072-F11F50E73F41}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -465,7 +646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -500,7 +681,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="20">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -535,7 +716,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +751,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="20">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -605,7 +786,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="20">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -640,7 +821,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="20">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -675,7 +856,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="20">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -710,7 +891,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="20">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -745,7 +926,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="20">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -780,7 +961,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -815,7 +996,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="20">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
